--- a/data/trans_orig/P1806_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1806_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>7330</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3798</v>
+        <v>3847</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14202</v>
+        <v>14397</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01061244461488933</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005498120287840953</v>
+        <v>0.005569437723925327</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02056165646033622</v>
+        <v>0.02084395560354971</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -762,19 +762,19 @@
         <v>22733</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15693</v>
+        <v>15650</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34201</v>
+        <v>34139</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03100885861540203</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02140639741774354</v>
+        <v>0.02134746008209296</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0466523158793686</v>
+        <v>0.0465677385502266</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -783,19 +783,19 @@
         <v>30063</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21869</v>
+        <v>21473</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42227</v>
+        <v>43186</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0211143698327883</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01535968791437673</v>
+        <v>0.01508109190465765</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02965734501867044</v>
+        <v>0.03033109449108791</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>683380</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>676508</v>
+        <v>676313</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>686912</v>
+        <v>686863</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9893875553851108</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9794383435396634</v>
+        <v>0.9791560443964504</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.994501879712159</v>
+        <v>0.9944305622760747</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1199</v>
@@ -833,19 +833,19 @@
         <v>710380</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>698912</v>
+        <v>698974</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>717420</v>
+        <v>717463</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.968991141384598</v>
+        <v>0.9689911413845981</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9533476841206319</v>
+        <v>0.9534322614497773</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9785936025822567</v>
+        <v>0.9786525399179082</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1918</v>
@@ -854,19 +854,19 @@
         <v>1393760</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1381596</v>
+        <v>1380637</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1401954</v>
+        <v>1402350</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9788856301672119</v>
+        <v>0.9788856301672118</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9703426549813295</v>
+        <v>0.969668905508912</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9846403120856233</v>
+        <v>0.9849189080953423</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>13438</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7784</v>
+        <v>7358</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24232</v>
+        <v>22857</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.0128113284501382</v>
+        <v>0.01281132845013821</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007420783433012829</v>
+        <v>0.007014767427799763</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02310217726065547</v>
+        <v>0.02179121197011472</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>50</v>
@@ -979,19 +979,19 @@
         <v>31047</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23153</v>
+        <v>23285</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41517</v>
+        <v>40897</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02899344656989573</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02162097766570027</v>
+        <v>0.02174465715611565</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03877054640748833</v>
+        <v>0.038191216490393</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>65</v>
@@ -1000,19 +1000,19 @@
         <v>44485</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34158</v>
+        <v>34083</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>56715</v>
+        <v>58352</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02098605905932826</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01611394684566293</v>
+        <v>0.01607886389789777</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02675529788407707</v>
+        <v>0.02752749345749614</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>1035479</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1024685</v>
+        <v>1026060</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1041133</v>
+        <v>1041559</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9871886715498619</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9768978227393444</v>
+        <v>0.9782087880298853</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.992579216566987</v>
+        <v>0.9929852325722004</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1466</v>
@@ -1050,19 +1050,19 @@
         <v>1039791</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1029321</v>
+        <v>1029941</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1047685</v>
+        <v>1047553</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9710065534301043</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9612294535925113</v>
+        <v>0.961808783509607</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9783790223342996</v>
+        <v>0.9782553428438843</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2415</v>
@@ -1071,19 +1071,19 @@
         <v>2075270</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2063040</v>
+        <v>2061403</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2085597</v>
+        <v>2085672</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9790139409406718</v>
+        <v>0.9790139409406717</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9732447021159228</v>
+        <v>0.9724725065425038</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9838860531543372</v>
+        <v>0.9839211361021023</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>27400</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18271</v>
+        <v>18416</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42698</v>
+        <v>42172</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03411901395597533</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02275093992229468</v>
+        <v>0.02293216580646</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05316835983293082</v>
+        <v>0.05251267883646529</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -1196,19 +1196,19 @@
         <v>50601</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39332</v>
+        <v>38987</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>64216</v>
+        <v>63643</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06234243861664117</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04845802030821573</v>
+        <v>0.04803406303798646</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0791165849688814</v>
+        <v>0.07841016460791403</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>94</v>
@@ -1217,19 +1217,19 @@
         <v>78001</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>63409</v>
+        <v>62818</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>97731</v>
+        <v>97605</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04830579353167327</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0392687324573835</v>
+        <v>0.03890268240056378</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06052442668596832</v>
+        <v>0.06044647422893661</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>775673</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>760375</v>
+        <v>760901</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>784802</v>
+        <v>784657</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9658809860440246</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9468316401670691</v>
+        <v>0.9474873211635351</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9772490600777053</v>
+        <v>0.9770678341935402</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>977</v>
@@ -1267,19 +1267,19 @@
         <v>761062</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>747447</v>
+        <v>748020</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>772331</v>
+        <v>772676</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9376575613833588</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9208834150311181</v>
+        <v>0.9215898353920861</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9515419796917843</v>
+        <v>0.9519659369620135</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1628</v>
@@ -1288,19 +1288,19 @@
         <v>1536735</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1517005</v>
+        <v>1517131</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1551327</v>
+        <v>1551918</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9516942064683266</v>
+        <v>0.9516942064683267</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9394755733140315</v>
+        <v>0.9395535257710635</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9607312675426164</v>
+        <v>0.9610973175994367</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>33774</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23585</v>
+        <v>24188</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47158</v>
+        <v>47217</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03411268161956644</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0238213680582373</v>
+        <v>0.02443124600892342</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04763153200318544</v>
+        <v>0.04769049383670188</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>144</v>
@@ -1413,19 +1413,19 @@
         <v>89756</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>75461</v>
+        <v>75274</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>106179</v>
+        <v>103285</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.08025713249626634</v>
+        <v>0.08025713249626636</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06747485116470101</v>
+        <v>0.06730729200554092</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09494235405309771</v>
+        <v>0.09235405819214984</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>185</v>
@@ -1434,19 +1434,19 @@
         <v>123530</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>106594</v>
+        <v>106607</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>142930</v>
+        <v>144310</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05858881917609033</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05055652507547431</v>
+        <v>0.05056248634449314</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06779036125109342</v>
+        <v>0.06844445496613205</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>956288</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>942904</v>
+        <v>942845</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>966477</v>
+        <v>965874</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9658873183804335</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9523684679968146</v>
+        <v>0.9523095061632986</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9761786319417625</v>
+        <v>0.9755687539910767</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1417</v>
@@ -1484,19 +1484,19 @@
         <v>1028601</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1012178</v>
+        <v>1015072</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1042896</v>
+        <v>1043083</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9197428675037339</v>
+        <v>0.9197428675037338</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9050576459469025</v>
+        <v>0.9076459418078504</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9325251488352995</v>
+        <v>0.9326927079944589</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2382</v>
@@ -1505,19 +1505,19 @@
         <v>1984889</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1965489</v>
+        <v>1964109</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2001825</v>
+        <v>2001812</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9414111808239098</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9322096387489066</v>
+        <v>0.9315555450338681</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9494434749245257</v>
+        <v>0.9494375136555068</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>81942</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>65600</v>
+        <v>66926</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103474</v>
+        <v>105838</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02319484778518329</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01856903795215043</v>
+        <v>0.01894426424268466</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0292897038849582</v>
+        <v>0.02995898268058116</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>303</v>
@@ -1630,19 +1630,19 @@
         <v>194137</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>172407</v>
+        <v>173227</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>219010</v>
+        <v>220013</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.05199221847083567</v>
+        <v>0.05199221847083566</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04617249604362527</v>
+        <v>0.04639207794337183</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05865328878514073</v>
+        <v>0.05892189605748137</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>395</v>
@@ -1651,19 +1651,19 @@
         <v>276079</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>247267</v>
+        <v>250251</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>305945</v>
+        <v>308184</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03799221799210868</v>
+        <v>0.03799221799210869</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03402720425646199</v>
+        <v>0.03443789969783623</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0421021874034213</v>
+        <v>0.04241020317734015</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3450820</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3429288</v>
+        <v>3426924</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3467162</v>
+        <v>3465836</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9768051522148169</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.970710296115042</v>
+        <v>0.9700410173194188</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9814309620478499</v>
+        <v>0.9810557357573153</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5059</v>
@@ -1701,19 +1701,19 @@
         <v>3539833</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3514960</v>
+        <v>3513957</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3561563</v>
+        <v>3560743</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9480077815291643</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9413467112148594</v>
+        <v>0.9410781039425188</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9538275039563745</v>
+        <v>0.9536079220566283</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8343</v>
@@ -1722,19 +1722,19 @@
         <v>6990653</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6960787</v>
+        <v>6958548</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7019465</v>
+        <v>7016481</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9620077820078914</v>
+        <v>0.9620077820078915</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9578978125965794</v>
+        <v>0.9575897968226601</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9659727957435389</v>
+        <v>0.9655621003021638</v>
       </c>
     </row>
     <row r="18">
